--- a/Task Tally.xlsx
+++ b/Task Tally.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickellis/Documents/Classes/CSCI_4230/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickellis/Documents/Classes/CSCI_4230/Project/Snorlax/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
   <si>
     <t>Camby</t>
   </si>
@@ -366,15 +366,6 @@
   </si>
   <si>
     <t>Total Number of Closed Issues Assigned to</t>
-  </si>
-  <si>
-    <t>Before Spring Break</t>
-  </si>
-  <si>
-    <t>After Spring Break</t>
-  </si>
-  <si>
-    <t>During/After Spring Break</t>
   </si>
 </sst>
 </file>
@@ -382,7 +373,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -415,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,25 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -527,24 +500,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -554,21 +524,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
-    <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
-    <cellStyle name="20% - Accent6" xfId="6" builtinId="50"/>
-    <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
+  <cellStyles count="4">
+    <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,14 +807,14 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -865,42 +823,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -911,7 +869,7 @@
       <c r="B3">
         <v>9</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <v>43501</v>
       </c>
       <c r="D3" t="s">
@@ -923,7 +881,7 @@
       <c r="G3">
         <v>9</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="1">
         <v>43501</v>
       </c>
       <c r="I3" t="s">
@@ -937,7 +895,7 @@
       <c r="B4">
         <v>13</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="1">
         <v>43529</v>
       </c>
       <c r="D4" t="s">
@@ -949,7 +907,7 @@
       <c r="G4">
         <v>16</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="1">
         <v>43549</v>
       </c>
       <c r="I4" t="s">
@@ -963,7 +921,7 @@
       <c r="B5">
         <v>24</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="1">
         <v>43543</v>
       </c>
       <c r="D5" t="s">
@@ -975,7 +933,7 @@
       <c r="G5">
         <v>18</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="1">
         <v>43545</v>
       </c>
       <c r="I5" t="s">
@@ -989,7 +947,7 @@
       <c r="B6">
         <v>30</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="1">
         <v>43550</v>
       </c>
       <c r="D6" t="s">
@@ -1001,7 +959,7 @@
       <c r="G6">
         <v>24</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="1">
         <v>43543</v>
       </c>
       <c r="I6" t="s">
@@ -1015,7 +973,7 @@
       <c r="B7">
         <v>33</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="1">
         <v>43550</v>
       </c>
       <c r="D7" t="s">
@@ -1027,7 +985,7 @@
       <c r="G7">
         <v>33</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="1">
         <v>43550</v>
       </c>
       <c r="I7" t="s">
@@ -1041,7 +999,7 @@
       <c r="B8">
         <v>35</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="1">
         <v>43550</v>
       </c>
       <c r="D8" t="s">
@@ -1053,7 +1011,7 @@
       <c r="G8">
         <v>34</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="1">
         <v>43579</v>
       </c>
       <c r="I8" t="s">
@@ -1067,7 +1025,7 @@
       <c r="B9">
         <v>36</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="1">
         <v>43550</v>
       </c>
       <c r="D9" t="s">
@@ -1079,7 +1037,7 @@
       <c r="G9">
         <v>40</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="1">
         <v>43550</v>
       </c>
       <c r="I9" t="s">
@@ -1093,7 +1051,7 @@
       <c r="B10">
         <v>37</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="1">
         <v>43550</v>
       </c>
       <c r="D10" t="s">
@@ -1105,7 +1063,7 @@
       <c r="G10">
         <v>45</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="1">
         <v>43550</v>
       </c>
       <c r="I10" t="s">
@@ -1119,7 +1077,7 @@
       <c r="B11">
         <v>38</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="1">
         <v>43550</v>
       </c>
       <c r="D11" t="s">
@@ -1131,7 +1089,7 @@
       <c r="G11">
         <v>50</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="1">
         <v>43579</v>
       </c>
       <c r="I11" t="s">
@@ -1145,7 +1103,7 @@
       <c r="B12">
         <v>39</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="1">
         <v>43550</v>
       </c>
       <c r="D12" t="s">
@@ -1157,7 +1115,7 @@
       <c r="G12">
         <v>51</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="1">
         <v>43557</v>
       </c>
       <c r="I12" t="s">
@@ -1171,7 +1129,7 @@
       <c r="B13">
         <v>40</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="1">
         <v>43550</v>
       </c>
       <c r="D13" t="s">
@@ -1183,7 +1141,7 @@
       <c r="G13">
         <v>52</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="1">
         <v>43557</v>
       </c>
       <c r="I13" t="s">
@@ -1197,7 +1155,7 @@
       <c r="B14">
         <v>41</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="1">
         <v>43550</v>
       </c>
       <c r="D14" t="s">
@@ -1209,7 +1167,7 @@
       <c r="G14">
         <v>53</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="1">
         <v>43564</v>
       </c>
       <c r="I14" t="s">
@@ -1223,7 +1181,7 @@
       <c r="B15">
         <v>43</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="1">
         <v>43550</v>
       </c>
       <c r="D15" t="s">
@@ -1235,7 +1193,7 @@
       <c r="G15">
         <v>54</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="1">
         <v>43564</v>
       </c>
       <c r="I15" t="s">
@@ -1249,7 +1207,7 @@
       <c r="B16">
         <v>45</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="1">
         <v>43550</v>
       </c>
       <c r="D16" t="s">
@@ -1261,7 +1219,7 @@
       <c r="G16">
         <v>58</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="1">
         <v>43557</v>
       </c>
       <c r="I16" t="s">
@@ -1275,7 +1233,7 @@
       <c r="B17">
         <v>50</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="1">
         <v>43579</v>
       </c>
       <c r="D17" t="s">
@@ -1287,7 +1245,7 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="1">
         <v>43557</v>
       </c>
       <c r="I17" t="s">
@@ -1301,7 +1259,7 @@
       <c r="B18">
         <v>51</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="1">
         <v>43557</v>
       </c>
       <c r="D18" t="s">
@@ -1313,7 +1271,7 @@
       <c r="G18">
         <v>60</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="1">
         <v>43557</v>
       </c>
       <c r="I18" t="s">
@@ -1327,7 +1285,7 @@
       <c r="B19">
         <v>52</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="1">
         <v>43557</v>
       </c>
       <c r="D19" t="s">
@@ -1339,7 +1297,7 @@
       <c r="G19">
         <v>61</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="1">
         <v>43557</v>
       </c>
       <c r="I19" t="s">
@@ -1353,7 +1311,7 @@
       <c r="B20">
         <v>53</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="1">
         <v>43564</v>
       </c>
       <c r="D20" t="s">
@@ -1365,7 +1323,7 @@
       <c r="G20">
         <v>64</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="1">
         <v>43564</v>
       </c>
       <c r="I20" t="s">
@@ -1379,7 +1337,7 @@
       <c r="B21">
         <v>54</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="1">
         <v>43564</v>
       </c>
       <c r="D21" t="s">
@@ -1391,7 +1349,7 @@
       <c r="G21">
         <v>67</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="1">
         <v>43573</v>
       </c>
       <c r="I21" t="s">
@@ -1405,7 +1363,7 @@
       <c r="B22">
         <v>64</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="1">
         <v>43564</v>
       </c>
       <c r="D22" t="s">
@@ -1416,7 +1374,7 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>19</v>
       </c>
     </row>
@@ -1427,7 +1385,7 @@
       <c r="B23">
         <v>67</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="1">
         <v>43573</v>
       </c>
       <c r="D23" t="s">
@@ -1440,47 +1398,47 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="F26" s="1" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1491,7 +1449,7 @@
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="1">
         <v>43536</v>
       </c>
       <c r="D28" t="s">
@@ -1503,7 +1461,7 @@
       <c r="G28">
         <v>4</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="1">
         <v>43515</v>
       </c>
       <c r="I28" t="s">
@@ -1517,7 +1475,7 @@
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="1">
         <v>43509</v>
       </c>
       <c r="D29" t="s">
@@ -1529,7 +1487,7 @@
       <c r="G29">
         <v>7</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="1">
         <v>43509</v>
       </c>
       <c r="I29" t="s">
@@ -1543,7 +1501,7 @@
       <c r="B30">
         <v>10</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="1">
         <v>43539</v>
       </c>
       <c r="D30" t="s">
@@ -1555,7 +1513,7 @@
       <c r="G30">
         <v>10</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="1">
         <v>43539</v>
       </c>
       <c r="I30" t="s">
@@ -1569,7 +1527,7 @@
       <c r="B31">
         <v>12</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="1">
         <v>43548</v>
       </c>
       <c r="D31" t="s">
@@ -1581,7 +1539,7 @@
       <c r="G31">
         <v>17</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="1">
         <v>43564</v>
       </c>
       <c r="I31" t="s">
@@ -1595,7 +1553,7 @@
       <c r="B32">
         <v>13</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="1">
         <v>43529</v>
       </c>
       <c r="D32" t="s">
@@ -1607,7 +1565,7 @@
       <c r="G32">
         <v>21</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="1">
         <v>43544</v>
       </c>
       <c r="I32" t="s">
@@ -1621,7 +1579,7 @@
       <c r="B33">
         <v>17</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="1">
         <v>43564</v>
       </c>
       <c r="D33" t="s">
@@ -1633,7 +1591,7 @@
       <c r="G33">
         <v>23</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="1">
         <v>43543</v>
       </c>
       <c r="I33" t="s">
@@ -1647,7 +1605,7 @@
       <c r="B34">
         <v>21</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="1">
         <v>43544</v>
       </c>
       <c r="D34" t="s">
@@ -1659,7 +1617,7 @@
       <c r="G34">
         <v>28</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="1">
         <v>43561</v>
       </c>
       <c r="I34" t="s">
@@ -1673,7 +1631,7 @@
       <c r="B35">
         <v>22</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="1">
         <v>43545</v>
       </c>
       <c r="D35" t="s">
@@ -1685,7 +1643,7 @@
       <c r="G35">
         <v>42</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="1">
         <v>43557</v>
       </c>
       <c r="I35" t="s">
@@ -1699,7 +1657,7 @@
       <c r="B36">
         <v>24</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="1">
         <v>43543</v>
       </c>
       <c r="D36" t="s">
@@ -1711,7 +1669,7 @@
       <c r="G36">
         <v>65</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="1">
         <v>43579</v>
       </c>
       <c r="I36" t="s">
@@ -1725,7 +1683,7 @@
       <c r="B37">
         <v>26</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="1">
         <v>43545</v>
       </c>
       <c r="D37" t="s">
@@ -1736,7 +1694,7 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>9</v>
       </c>
     </row>
@@ -1747,7 +1705,7 @@
       <c r="B38">
         <v>28</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="1">
         <v>43561</v>
       </c>
       <c r="D38" t="s">
@@ -1761,18 +1719,18 @@
       <c r="B39">
         <v>30</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="1">
         <v>43550</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -1781,22 +1739,22 @@
       <c r="B40">
         <v>46</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="1">
         <v>43551</v>
       </c>
       <c r="D40" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1807,7 +1765,7 @@
       <c r="B41">
         <v>48</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="1">
         <v>43561</v>
       </c>
       <c r="D41" t="s">
@@ -1819,7 +1777,7 @@
       <c r="G41">
         <v>8</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="1">
         <v>43558</v>
       </c>
       <c r="I41" t="s">
@@ -1833,7 +1791,7 @@
       <c r="B42">
         <v>49</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="1">
         <v>43557</v>
       </c>
       <c r="D42" t="s">
@@ -1845,7 +1803,7 @@
       <c r="G42">
         <v>13</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="1">
         <v>43529</v>
       </c>
       <c r="I42" t="s">
@@ -1859,7 +1817,7 @@
       <c r="B43">
         <v>56</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="1">
         <v>43558</v>
       </c>
       <c r="D43" t="s">
@@ -1871,7 +1829,7 @@
       <c r="G43">
         <v>19</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="1">
         <v>43558</v>
       </c>
       <c r="I43" t="s">
@@ -1885,7 +1843,7 @@
       <c r="B44">
         <v>65</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="1">
         <v>43579</v>
       </c>
       <c r="D44" t="s">
@@ -1897,7 +1855,7 @@
       <c r="G44">
         <v>27</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="1">
         <v>43579</v>
       </c>
       <c r="I44" t="s">
@@ -1911,7 +1869,7 @@
       <c r="B45">
         <v>69</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="1">
         <v>43579</v>
       </c>
       <c r="D45" t="s">
@@ -1923,7 +1881,7 @@
       <c r="G45">
         <v>46</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="1">
         <v>43551</v>
       </c>
       <c r="I45" t="s">
@@ -1936,7 +1894,7 @@
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>18</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -1944,104 +1902,95 @@
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="3">
+      <c r="I46" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="F48" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>106</v>
       </c>
       <c r="B50">
         <v>31</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="1">
         <v>43579</v>
       </c>
       <c r="D50" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
       <c r="B51">
         <v>33</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="1">
         <v>43550</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>26</v>
       </c>
       <c r="B52">
         <v>40</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="1">
         <v>43550</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>108</v>
       </c>
       <c r="B53">
         <v>63</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="1">
         <v>43572</v>
       </c>
       <c r="D53" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>4</v>
       </c>
     </row>
